--- a/public/projects/aLuu-BKHN-TSN/Book1.xlsx
+++ b/public/projects/aLuu-BKHN-TSN/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev_SW\lazinet-fullstack\lazinet-frontend\public\projects\aLuu-BKHN-TSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8AA1BC2-5F6B-4EE7-BF9F-CEF7ADB20717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEE46E7-372B-4DA9-B947-4535DE52068D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6FD04501-E77F-4F67-9968-E21C25F5C71A}"/>
   </bookViews>
@@ -33,9 +33,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,13 +54,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,6 +115,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96DA83F-6A43-4CE2-99B4-68D7D51149D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="0"/>
+          <a:ext cx="7772400" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,38 +469,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD64A46-1F2B-432D-8B3B-6108C07DBDBC}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>10.58</v>
-      </c>
-      <c r="B1">
-        <f>A1-$B$3</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>7.06</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2">
-        <f>A2-$B$3</f>
-        <v>6.9799999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="E2" s="2">
+        <f>B2*100</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>C2*100</f>
+        <v>847.00000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3">
-        <v>0.08</v>
+        <v>0.66</v>
+      </c>
+      <c r="C3">
+        <v>6.76</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E23" si="0">B3*100</f>
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F23" si="1">C3*100</f>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.4</v>
+      </c>
+      <c r="C4">
+        <v>5.07</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.33</v>
+      </c>
+      <c r="C5">
+        <v>3.38</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.62</v>
+      </c>
+      <c r="C6">
+        <v>1.69</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>362</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6.63</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>663</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10.65</v>
+      </c>
+      <c r="C8">
+        <f>C12/5</f>
+        <v>3.07</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1065</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>12.15</v>
+      </c>
+      <c r="C9">
+        <f>C8*2</f>
+        <v>6.14</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>1215</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>13.15</v>
+      </c>
+      <c r="C10">
+        <f>C8*3</f>
+        <v>9.2099999999999991</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1315</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>920.99999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>13.85</v>
+      </c>
+      <c r="C11">
+        <f>C8*4</f>
+        <v>12.28</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1385</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>14.42</v>
+      </c>
+      <c r="C12">
+        <v>15.35</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>1442</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>14.42</v>
+      </c>
+      <c r="C13">
+        <v>15.35</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>1442</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13.69</v>
+      </c>
+      <c r="C14">
+        <v>12.28</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1369</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>12.75</v>
+      </c>
+      <c r="C15">
+        <f>C10</f>
+        <v>9.2099999999999991</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1275</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>920.99999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>11.54</v>
+      </c>
+      <c r="C16">
+        <f>C9</f>
+        <v>6.14</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>1154</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>9.67</v>
+      </c>
+      <c r="C17">
+        <f>C8</f>
+        <v>3.07</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>967</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6.32</v>
+      </c>
+      <c r="C18">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>632</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>111.00000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4.7</v>
+      </c>
+      <c r="C19">
+        <f>C6</f>
+        <v>1.69</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>470</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3.93</v>
+      </c>
+      <c r="C20">
+        <f>C5</f>
+        <v>3.38</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1.77</v>
+      </c>
+      <c r="C21">
+        <f>C4</f>
+        <v>5.07</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1.84</v>
+      </c>
+      <c r="C22">
+        <f>C3</f>
+        <v>6.76</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
+        <v>847.00000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>